--- a/storage/imports/polygons.xlsx
+++ b/storage/imports/polygons.xlsx
@@ -366,7 +366,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B7" si="1">B2</f>
+        <f t="shared" ref="B3:B5" si="1">B2</f>
         <v>Basilikum</v>
       </c>
       <c r="C3" s="2">
@@ -385,7 +385,7 @@
         <v>1.0</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H7" si="2">H2</f>
+        <f t="shared" ref="H3:H5" si="2">H2</f>
         <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
       </c>
     </row>
@@ -441,62 +441,6 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="B6" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Basilikum</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.670309</v>
-      </c>
-      <c r="D6" s="2">
-        <v>-74.040536</v>
-      </c>
-      <c r="E6" s="1">
-        <v>524.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="B7" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>Basilikum</v>
-      </c>
-      <c r="C7" s="2">
-        <v>4.630309</v>
-      </c>
-      <c r="D7" s="2">
-        <v>-74.071536</v>
-      </c>
-      <c r="E7" s="1">
-        <v>524.0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>11.0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="3" t="str">
         <f t="shared" si="2"/>
         <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
       </c>

--- a/storage/imports/polygons.xlsx
+++ b/storage/imports/polygons.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>merchant_id</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>long</t>
+  </si>
+  <si>
+    <t>address_id</t>
   </si>
   <si>
     <t>city_id</t>
@@ -47,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -57,6 +60,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Roboto"/>
@@ -82,14 +86,17 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
@@ -322,7 +329,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -333,6 +340,9 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -340,52 +350,58 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
         <v>4.668309</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>-74.051536</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F2" s="1">
         <v>524.0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>11.0</v>
       </c>
-      <c r="G2" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
+      <c r="H2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
         <v>2.0</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="4" t="str">
         <f t="shared" ref="B3:B5" si="1">B2</f>
         <v>Basilikum</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>4.658309</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>-74.055536</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F3" s="1">
         <v>524.0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>11.0</v>
       </c>
-      <c r="G3" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H3" s="3" t="str">
-        <f t="shared" ref="H3:H5" si="2">H2</f>
+      <c r="H3" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I3" s="4" t="str">
+        <f t="shared" ref="I3:I5" si="2">I2</f>
         <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
       </c>
     </row>
@@ -393,26 +409,29 @@
       <c r="A4" s="1">
         <v>3.0</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Basilikum</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>4.663309</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>-74.058536</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="1">
         <v>524.0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>11.0</v>
       </c>
-      <c r="G4" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H4" s="3" t="str">
+      <c r="H4" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
       </c>
@@ -421,26 +440,29 @@
       <c r="A5" s="1">
         <v>4.0</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="4" t="str">
         <f t="shared" si="1"/>
         <v>Basilikum</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>4.652309</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="3">
         <v>-74.045536</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="F5" s="1">
         <v>524.0</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>11.0</v>
       </c>
-      <c r="G5" s="1">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="3" t="str">
+      <c r="H5" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="I5" s="4" t="str">
         <f t="shared" si="2"/>
         <v>[{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.753332599762442,"lng":-74.04286217214884},{"lat":4.7551351123031305,"lng":-74.04642125539976},{"lat":4.759375286692839,"lng":-74.05639629963721},{"lat":4.699947513666479,"lng":-74.09312135525532},{"lat":4.667056625753038,"lng":-74.11610070205977},{"lat":4.640324706778415,"lng":-74.08037243177954},{"lat":4.6350489648251925,"lng":-74.05238988367364},{"lat":4.645171803011835,"lng":-74.05118635000262},{"lat":4.660479714785068,"lng":-74.04647303288787},{"lat":4.6638563268163695,"lng":-74.04420214942542},{"lat":4.669628230703824,"lng":-74.04381951957012},{"lat":4.683733470407788,"lng":-74.03353391455748},{"lat":4.697933609529725,"lng":-74.02538001133136},{"lat":4.748273334178794,"lng":-74.02040184505734},{"lat":4.748658240870914,"lng":-74.03842625302927},{"lat":4.748251900907374,"lng":-74.03986392987024},{"lat":4.734159758056198,"lng":-74.04147323543135},{"lat":4.734352218334483,"lng":-74.04261049032979},{"lat":4.733635839739751,"lng":-74.0467839980387},{"lat":4.733004998552708,"lng":-74.04357608248527},{"lat":4.732235157820927,"lng":-74.04185947264003},{"lat":4.732962229647646,"lng":-74.04263194707154},{"lat":4.734074220384415,"lng":-74.0406793033791},{"lat":4.748145002307345,"lng":-74.03941330490201},{"lat":4.7510532420113325,"lng":-74.03810438278812},{"lat":4.751865837871641,"lng":-74.03949912776886},{"lat":4.752742569875516,"lng":-74.04100116437581},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482},{"lat":4.752913640980061,"lng":-74.04190238660482}]</v>
       </c>
